--- a/Input_Helicopter.xlsx
+++ b/Input_Helicopter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vpb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simranwig/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00E679C0-16CB-7D42-A613-C1A979BA25BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E973EE-DF81-7542-A129-1936D5DBA820}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{805363EF-CCD6-2043-A0AF-9DCD5ED0461B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{805363EF-CCD6-2043-A0AF-9DCD5ED0461B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,35 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Empty_weight</t>
-  </si>
-  <si>
-    <t>Max_Speed</t>
-  </si>
-  <si>
-    <t>Max_Distance</t>
-  </si>
-  <si>
-    <t>Max_Occupancy</t>
-  </si>
-  <si>
     <t>UH-60 Black Hawk</t>
   </si>
   <si>
-    <t>AH-64 Apache</t>
-  </si>
-  <si>
     <t>CH-47 Chinook</t>
   </si>
   <si>
-    <t>H-34 SeaHorse</t>
-  </si>
-  <si>
     <t>MH-6 Little Bird</t>
   </si>
   <si>
@@ -76,6 +58,27 @@
   </si>
   <si>
     <t>Kamov Ka-27</t>
+  </si>
+  <si>
+    <t>Empty_weight (lbs)</t>
+  </si>
+  <si>
+    <t>Max_Speed(mph)</t>
+  </si>
+  <si>
+    <t>Capacity (lbs)</t>
+  </si>
+  <si>
+    <t>Max_Distance(miles)</t>
+  </si>
+  <si>
+    <t>Max_no of people</t>
+  </si>
+  <si>
+    <t>H-34 SeaHorse ( C Model)</t>
+  </si>
+  <si>
+    <t>Kawasaki BK 117</t>
   </si>
 </sst>
 </file>
@@ -111,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,85 +431,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5CEA1F-8212-744D-A4D5-A087369B9E7C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1">
+        <v>10624</v>
+      </c>
+      <c r="C2">
+        <v>183</v>
+      </c>
+      <c r="D2">
+        <v>362</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>13264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="1">
+        <v>24578</v>
+      </c>
+      <c r="C3">
+        <v>196</v>
+      </c>
+      <c r="D3" s="1">
+        <v>450</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C4">
+        <v>173</v>
+      </c>
+      <c r="D4">
+        <v>182</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" s="1">
+        <v>1591</v>
+      </c>
+      <c r="C5">
+        <v>175</v>
+      </c>
+      <c r="D5">
+        <v>267</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B6" s="1">
+        <v>15500</v>
+      </c>
+      <c r="C6">
+        <v>190</v>
+      </c>
+      <c r="D6">
+        <v>539</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7005</v>
+      </c>
+      <c r="C7">
+        <v>178</v>
+      </c>
+      <c r="D7">
+        <v>473</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B8" s="1">
+        <v>23148</v>
+      </c>
+      <c r="C8">
+        <v>172</v>
+      </c>
+      <c r="D8">
+        <v>576</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>34392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13448</v>
+      </c>
+      <c r="C9">
+        <v>143</v>
+      </c>
+      <c r="D9">
+        <v>497</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>27778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B10" s="1">
+        <v>11587</v>
+      </c>
+      <c r="C10">
+        <v>201</v>
+      </c>
+      <c r="D10">
+        <v>463</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>24251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3807</v>
+      </c>
+      <c r="C11">
+        <v>155</v>
+      </c>
+      <c r="D11">
+        <v>336</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
+      <c r="F11">
+        <v>7385</v>
       </c>
     </row>
   </sheetData>
